--- a/AI(1)/cricket.xlsx
+++ b/AI(1)/cricket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\내 드라이브\10.강의\4.국민대\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhyoo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -379,111 +379,127 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4">
-        <v>38</v>
+        <v>19.8</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5">
-        <v>43</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6">
-        <v>48</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7">
-        <v>37</v>
+        <v>15.5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8">
-        <v>34</v>
+        <v>14.7</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9">
-        <v>45</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10">
-        <v>51</v>
+        <v>15.4</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11">
-        <v>32</v>
+        <v>16.2</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13">
-        <v>42</v>
+        <v>17.2</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16">
+        <v>14.4</v>
+      </c>
+      <c r="B16">
+        <v>76.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>